--- a/database/industries/dode/shedoos/cost/quarterly.xlsx
+++ b/database/industries/dode/shedoos/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA88A8D-16A2-4B9E-BE12-87F682CA0CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD40557F-C1A7-4C2D-9898-86F8E05C16DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -734,12 +734,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -754,7 +754,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +803,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -852,7 +852,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -889,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -904,168 +904,168 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>460754</v>
+        <v>613548</v>
       </c>
       <c r="F10" s="9">
-        <v>613548</v>
+        <v>653049</v>
       </c>
       <c r="G10" s="9">
-        <v>653049</v>
+        <v>1171344</v>
       </c>
       <c r="H10" s="9">
-        <v>1171344</v>
+        <v>1337896</v>
       </c>
       <c r="I10" s="9">
-        <v>1337896</v>
+        <v>1729072</v>
       </c>
       <c r="J10" s="9">
-        <v>1729072</v>
+        <v>1720294</v>
       </c>
       <c r="K10" s="9">
-        <v>1720294</v>
+        <v>2396364</v>
       </c>
       <c r="L10" s="9">
-        <v>2396364</v>
+        <v>2165553</v>
       </c>
       <c r="M10" s="9">
-        <v>2165553</v>
+        <v>1841029</v>
       </c>
       <c r="N10" s="9">
-        <v>1841029</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1446524</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>24467</v>
+        <v>20836</v>
       </c>
       <c r="F11" s="11">
-        <v>20836</v>
+        <v>19473</v>
       </c>
       <c r="G11" s="11">
-        <v>19473</v>
+        <v>31226</v>
       </c>
       <c r="H11" s="11">
-        <v>31226</v>
+        <v>34256</v>
       </c>
       <c r="I11" s="11">
-        <v>34256</v>
+        <v>26905</v>
       </c>
       <c r="J11" s="11">
-        <v>26905</v>
+        <v>26390</v>
       </c>
       <c r="K11" s="11">
-        <v>26390</v>
+        <v>46786</v>
       </c>
       <c r="L11" s="11">
-        <v>46786</v>
+        <v>45125</v>
       </c>
       <c r="M11" s="11">
-        <v>45125</v>
+        <v>45717</v>
       </c>
       <c r="N11" s="11">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>55907</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>70727</v>
+        <v>61497</v>
       </c>
       <c r="F12" s="9">
-        <v>61497</v>
+        <v>87793</v>
       </c>
       <c r="G12" s="9">
-        <v>87793</v>
+        <v>114147</v>
       </c>
       <c r="H12" s="9">
-        <v>114147</v>
+        <v>143675</v>
       </c>
       <c r="I12" s="9">
-        <v>143675</v>
+        <v>128474</v>
       </c>
       <c r="J12" s="9">
-        <v>128474</v>
+        <v>190048</v>
       </c>
       <c r="K12" s="9">
-        <v>190048</v>
+        <v>165535</v>
       </c>
       <c r="L12" s="9">
-        <v>165535</v>
+        <v>226738</v>
       </c>
       <c r="M12" s="9">
-        <v>226738</v>
+        <v>152466</v>
       </c>
       <c r="N12" s="9">
-        <v>152466</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>263811</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>555948</v>
+        <v>695881</v>
       </c>
       <c r="F13" s="13">
-        <v>695881</v>
+        <v>760315</v>
       </c>
       <c r="G13" s="13">
-        <v>760315</v>
+        <v>1316717</v>
       </c>
       <c r="H13" s="13">
-        <v>1316717</v>
+        <v>1515827</v>
       </c>
       <c r="I13" s="13">
-        <v>1515827</v>
+        <v>1884451</v>
       </c>
       <c r="J13" s="13">
-        <v>1884451</v>
+        <v>1936732</v>
       </c>
       <c r="K13" s="13">
-        <v>1936732</v>
+        <v>2608685</v>
       </c>
       <c r="L13" s="13">
-        <v>2608685</v>
+        <v>2437416</v>
       </c>
       <c r="M13" s="13">
-        <v>2437416</v>
+        <v>2039212</v>
       </c>
       <c r="N13" s="13">
-        <v>2039212</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1766242</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-9550</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>-13125</v>
       </c>
       <c r="G14" s="9">
-        <v>-13125</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -1080,53 +1080,53 @@
         <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>-34895</v>
       </c>
       <c r="M14" s="9">
-        <v>-34895</v>
+        <v>34895</v>
       </c>
       <c r="N14" s="9">
-        <v>34895</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-58614</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>546398</v>
+        <v>695881</v>
       </c>
       <c r="F15" s="13">
-        <v>695881</v>
+        <v>747190</v>
       </c>
       <c r="G15" s="13">
-        <v>747190</v>
+        <v>1316717</v>
       </c>
       <c r="H15" s="13">
-        <v>1316717</v>
+        <v>1515827</v>
       </c>
       <c r="I15" s="13">
-        <v>1515827</v>
+        <v>1884451</v>
       </c>
       <c r="J15" s="13">
-        <v>1884451</v>
+        <v>1936732</v>
       </c>
       <c r="K15" s="13">
-        <v>1936732</v>
+        <v>2608685</v>
       </c>
       <c r="L15" s="13">
-        <v>2608685</v>
+        <v>2402521</v>
       </c>
       <c r="M15" s="13">
-        <v>2402521</v>
+        <v>2074107</v>
       </c>
       <c r="N15" s="13">
-        <v>2074107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1707628</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1200,44 +1200,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>546398</v>
+        <v>695881</v>
       </c>
       <c r="F18" s="15">
-        <v>695881</v>
+        <v>747190</v>
       </c>
       <c r="G18" s="15">
-        <v>747190</v>
+        <v>1316717</v>
       </c>
       <c r="H18" s="15">
-        <v>1316717</v>
+        <v>1515827</v>
       </c>
       <c r="I18" s="15">
-        <v>1515827</v>
+        <v>1884451</v>
       </c>
       <c r="J18" s="15">
-        <v>1884451</v>
+        <v>1936732</v>
       </c>
       <c r="K18" s="15">
-        <v>1936732</v>
+        <v>2608685</v>
       </c>
       <c r="L18" s="15">
-        <v>2608685</v>
+        <v>2402521</v>
       </c>
       <c r="M18" s="15">
-        <v>2402521</v>
+        <v>2074107</v>
       </c>
       <c r="N18" s="15">
-        <v>2074107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1707628</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1247,108 +1247,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>45648</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>62170</v>
       </c>
       <c r="H19" s="11">
-        <v>62170</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>133795</v>
       </c>
       <c r="K19" s="11">
-        <v>53730</v>
+        <v>139226</v>
       </c>
       <c r="L19" s="11">
-        <v>139226</v>
+        <v>263620</v>
       </c>
       <c r="M19" s="11">
-        <v>263620</v>
+        <v>495973</v>
       </c>
       <c r="N19" s="11">
-        <v>495973</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>419110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>35749</v>
+        <v>42225</v>
       </c>
       <c r="F20" s="9">
-        <v>42225</v>
+        <v>-62170</v>
       </c>
       <c r="G20" s="9">
-        <v>-16522</v>
+        <v>-112871</v>
       </c>
       <c r="H20" s="9">
-        <v>-112871</v>
+        <v>32806</v>
       </c>
       <c r="I20" s="9">
-        <v>32806</v>
+        <v>-53730</v>
       </c>
       <c r="J20" s="9">
-        <v>-53730</v>
+        <v>-139226</v>
       </c>
       <c r="K20" s="9">
-        <v>-139226</v>
+        <v>-263620</v>
       </c>
       <c r="L20" s="9">
-        <v>-263620</v>
+        <v>-495973</v>
       </c>
       <c r="M20" s="9">
-        <v>-495973</v>
+        <v>-419110</v>
       </c>
       <c r="N20" s="9">
-        <v>-419110</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-150431</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>582147</v>
+        <v>738106</v>
       </c>
       <c r="F21" s="13">
-        <v>738106</v>
+        <v>730668</v>
       </c>
       <c r="G21" s="13">
-        <v>730668</v>
+        <v>1266016</v>
       </c>
       <c r="H21" s="13">
-        <v>1266016</v>
+        <v>1548633</v>
       </c>
       <c r="I21" s="13">
-        <v>1548633</v>
+        <v>1830721</v>
       </c>
       <c r="J21" s="13">
-        <v>1830721</v>
+        <v>1931301</v>
       </c>
       <c r="K21" s="13">
-        <v>1931301</v>
+        <v>2484291</v>
       </c>
       <c r="L21" s="13">
-        <v>2484291</v>
+        <v>2170168</v>
       </c>
       <c r="M21" s="13">
-        <v>2170168</v>
+        <v>2150970</v>
       </c>
       <c r="N21" s="13">
-        <v>2150970</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1976307</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1385,44 +1385,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>582147</v>
+        <v>738106</v>
       </c>
       <c r="F23" s="13">
-        <v>738106</v>
+        <v>730668</v>
       </c>
       <c r="G23" s="13">
-        <v>730668</v>
+        <v>1266016</v>
       </c>
       <c r="H23" s="13">
-        <v>1266016</v>
+        <v>1548633</v>
       </c>
       <c r="I23" s="13">
-        <v>1548633</v>
+        <v>1830721</v>
       </c>
       <c r="J23" s="13">
-        <v>1830721</v>
+        <v>1931301</v>
       </c>
       <c r="K23" s="13">
-        <v>1931301</v>
+        <v>2484291</v>
       </c>
       <c r="L23" s="13">
-        <v>2484291</v>
+        <v>2170168</v>
       </c>
       <c r="M23" s="13">
-        <v>2170168</v>
+        <v>2150970</v>
       </c>
       <c r="N23" s="13">
-        <v>2150970</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1976307</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1437,7 +1437,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1467,7 +1467,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1519,7 +1519,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1528,37 +1528,37 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>470</v>
+        <v>339</v>
       </c>
       <c r="F29" s="9">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="G29" s="9">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="H29" s="9">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="I29" s="9">
-        <v>585</v>
-      </c>
-      <c r="J29" s="9">
         <v>534526</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9">
+        <v>500</v>
       </c>
       <c r="L29" s="9">
-        <v>500</v>
+        <v>346</v>
       </c>
       <c r="M29" s="9">
-        <v>346</v>
+        <v>210514</v>
       </c>
       <c r="N29" s="9">
-        <v>210514</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1567,37 +1567,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>3915</v>
+        <v>3864</v>
       </c>
       <c r="F30" s="11">
-        <v>3864</v>
+        <v>5629</v>
       </c>
       <c r="G30" s="11">
-        <v>5629</v>
+        <v>5150000</v>
       </c>
       <c r="H30" s="11">
-        <v>5150000</v>
+        <v>8788000</v>
       </c>
       <c r="I30" s="11">
-        <v>8788000</v>
-      </c>
-      <c r="J30" s="11">
         <v>5963269</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>31</v>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11">
+        <v>5100</v>
       </c>
       <c r="L30" s="11">
-        <v>5100</v>
+        <v>7179</v>
       </c>
       <c r="M30" s="11">
-        <v>7179</v>
+        <v>3296000</v>
       </c>
       <c r="N30" s="11">
-        <v>3296000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5162000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1611,12 +1611,12 @@
       <c r="F31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="G31" s="9">
         <v>5150000</v>
       </c>
+      <c r="H31" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I31" s="9" t="s">
         <v>31</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
@@ -1648,11 +1648,11 @@
       <c r="F32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>31</v>
@@ -1673,44 +1673,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>4385</v>
+        <v>4203</v>
       </c>
       <c r="F33" s="15">
-        <v>4203</v>
-      </c>
-      <c r="G33" s="15">
         <v>6116</v>
       </c>
-      <c r="H33" s="15" t="s">
-        <v>31</v>
+      <c r="G33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="15">
+        <v>8788585</v>
       </c>
       <c r="I33" s="15">
-        <v>8788585</v>
+        <v>6497795</v>
       </c>
       <c r="J33" s="15">
-        <v>6497795</v>
+        <v>0</v>
       </c>
       <c r="K33" s="15">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="L33" s="15">
-        <v>5600</v>
+        <v>7525</v>
       </c>
       <c r="M33" s="15">
-        <v>7525</v>
+        <v>3506514</v>
       </c>
       <c r="N33" s="15">
-        <v>3506514</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5318000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1759,7 +1759,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1774,7 +1774,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>37</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1826,7 +1826,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1835,37 +1835,37 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="F40" s="9">
-        <v>386</v>
+        <v>195</v>
       </c>
       <c r="G40" s="9">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="H40" s="9">
-        <v>250</v>
+        <v>363796</v>
       </c>
       <c r="I40" s="9">
-        <v>363796</v>
+        <v>26954</v>
       </c>
       <c r="J40" s="9">
-        <v>26954</v>
+        <v>367417</v>
       </c>
       <c r="K40" s="9">
-        <v>367417</v>
+        <v>41</v>
       </c>
       <c r="L40" s="9">
-        <v>41</v>
+        <v>85198</v>
       </c>
       <c r="M40" s="9">
-        <v>85198</v>
+        <v>121761</v>
       </c>
       <c r="N40" s="9">
-        <v>121761</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>352581</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
@@ -1874,37 +1874,37 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>13678</v>
+        <v>13649</v>
       </c>
       <c r="F41" s="11">
-        <v>13649</v>
+        <v>10057</v>
       </c>
       <c r="G41" s="11">
-        <v>10057</v>
+        <v>19253000</v>
       </c>
       <c r="H41" s="11">
-        <v>19253000</v>
+        <v>13568310</v>
       </c>
       <c r="I41" s="11">
-        <v>13568310</v>
+        <v>16530690</v>
       </c>
       <c r="J41" s="11">
-        <v>16530690</v>
+        <v>16402320</v>
       </c>
       <c r="K41" s="11">
-        <v>16402320</v>
+        <v>18863</v>
       </c>
       <c r="L41" s="11">
-        <v>18863</v>
+        <v>29652137</v>
       </c>
       <c r="M41" s="11">
-        <v>29652137</v>
+        <v>16797000</v>
       </c>
       <c r="N41" s="11">
-        <v>16797000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11341860</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
@@ -1918,12 +1918,12 @@
       <c r="F42" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="9">
+      <c r="G42" s="9">
         <v>19253000</v>
       </c>
+      <c r="H42" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I42" s="9" t="s">
         <v>31</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>36</v>
       </c>
@@ -1955,11 +1955,11 @@
       <c r="F43" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>31</v>
@@ -1980,44 +1980,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>13751</v>
+        <v>14035</v>
       </c>
       <c r="F44" s="15">
-        <v>14035</v>
-      </c>
-      <c r="G44" s="15">
         <v>10252</v>
       </c>
-      <c r="H44" s="15" t="s">
-        <v>31</v>
+      <c r="G44" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="15">
+        <v>13932106</v>
       </c>
       <c r="I44" s="15">
-        <v>13932106</v>
+        <v>16557644</v>
       </c>
       <c r="J44" s="15">
-        <v>16557644</v>
+        <v>16769737</v>
       </c>
       <c r="K44" s="15">
-        <v>16769737</v>
+        <v>18904</v>
       </c>
       <c r="L44" s="15">
-        <v>18904</v>
+        <v>29737335</v>
       </c>
       <c r="M44" s="15">
-        <v>29737335</v>
+        <v>16918761</v>
       </c>
       <c r="N44" s="15">
-        <v>16918761</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11694441</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>17</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2051,7 +2051,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2066,7 +2066,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2081,7 +2081,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>39</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2133,7 +2133,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2142,37 +2142,37 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="F51" s="9">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="G51" s="9">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="H51" s="9">
-        <v>246</v>
+        <v>409935</v>
       </c>
       <c r="I51" s="9">
-        <v>409935</v>
+        <v>203819</v>
       </c>
       <c r="J51" s="9">
-        <v>203819</v>
+        <v>225592</v>
       </c>
       <c r="K51" s="9">
-        <v>225592</v>
+        <v>195</v>
       </c>
       <c r="L51" s="9">
-        <v>195</v>
+        <v>374516</v>
       </c>
       <c r="M51" s="9">
-        <v>374516</v>
+        <v>176289</v>
       </c>
       <c r="N51" s="9">
-        <v>176289</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>165958</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2181,37 +2181,37 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>13729</v>
+        <v>11884</v>
       </c>
       <c r="F52" s="11">
-        <v>11884</v>
+        <v>10536</v>
       </c>
       <c r="G52" s="11">
-        <v>10536</v>
+        <v>15615000</v>
       </c>
       <c r="H52" s="11">
-        <v>15615000</v>
+        <v>16393114</v>
       </c>
       <c r="I52" s="11">
-        <v>16393114</v>
+        <v>17889886</v>
       </c>
       <c r="J52" s="11">
-        <v>17889886</v>
+        <v>15906682</v>
       </c>
       <c r="K52" s="11">
-        <v>15906682</v>
+        <v>16784</v>
       </c>
       <c r="L52" s="11">
-        <v>16784</v>
+        <v>31458216</v>
       </c>
       <c r="M52" s="11">
-        <v>31458216</v>
+        <v>14931000</v>
       </c>
       <c r="N52" s="11">
-        <v>14931000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12085863</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>34</v>
       </c>
@@ -2225,12 +2225,12 @@
       <c r="F53" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="9">
+      <c r="G53" s="9">
         <v>15615000</v>
       </c>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I53" s="9" t="s">
         <v>31</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>36</v>
       </c>
@@ -2262,11 +2262,11 @@
       <c r="F54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>31</v>
@@ -2287,44 +2287,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>13934</v>
+        <v>12122</v>
       </c>
       <c r="F55" s="15">
-        <v>12122</v>
-      </c>
-      <c r="G55" s="15">
         <v>10637</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>31</v>
+      <c r="G55" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="15">
+        <v>16803049</v>
       </c>
       <c r="I55" s="15">
-        <v>16803049</v>
+        <v>18093705</v>
       </c>
       <c r="J55" s="15">
-        <v>18093705</v>
+        <v>16132274</v>
       </c>
       <c r="K55" s="15">
-        <v>16132274</v>
+        <v>16979</v>
       </c>
       <c r="L55" s="15">
-        <v>16979</v>
+        <v>31832732</v>
       </c>
       <c r="M55" s="15">
-        <v>31832732</v>
+        <v>15107289</v>
       </c>
       <c r="N55" s="15">
-        <v>15107289</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12251821</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>17</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2358,7 +2358,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2373,7 +2373,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2388,7 +2388,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>40</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2440,7 +2440,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>29</v>
       </c>
@@ -2449,37 +2449,37 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="F62" s="9">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="G62" s="9">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H62" s="9">
-        <v>585</v>
+        <v>534526</v>
       </c>
       <c r="I62" s="9">
-        <v>534526</v>
+        <v>358000</v>
       </c>
       <c r="J62" s="9">
-        <v>358000</v>
+        <v>500486</v>
       </c>
       <c r="K62" s="9">
-        <v>500486</v>
+        <v>346</v>
       </c>
       <c r="L62" s="9">
-        <v>346</v>
+        <v>210514</v>
       </c>
       <c r="M62" s="9">
-        <v>210514</v>
+        <v>156000</v>
       </c>
       <c r="N62" s="9">
-        <v>156000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>343109</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>32</v>
       </c>
@@ -2488,37 +2488,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>3864</v>
+        <v>5629</v>
       </c>
       <c r="F63" s="11">
-        <v>5629</v>
+        <v>5150</v>
       </c>
       <c r="G63" s="11">
-        <v>5150</v>
+        <v>8788000</v>
       </c>
       <c r="H63" s="11">
-        <v>8788000</v>
+        <v>5963269</v>
       </c>
       <c r="I63" s="11">
-        <v>5963269</v>
+        <v>4604000</v>
       </c>
       <c r="J63" s="11">
-        <v>4604000</v>
+        <v>5099711</v>
       </c>
       <c r="K63" s="11">
-        <v>5099711</v>
+        <v>7179</v>
       </c>
       <c r="L63" s="11">
-        <v>7179</v>
+        <v>3296000</v>
       </c>
       <c r="M63" s="11">
-        <v>3296000</v>
+        <v>5162000</v>
       </c>
       <c r="N63" s="11">
-        <v>5162000</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4417708</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>34</v>
       </c>
@@ -2532,12 +2532,12 @@
       <c r="F64" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="9">
+      <c r="G64" s="9">
         <v>8788000</v>
       </c>
+      <c r="H64" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I64" s="9" t="s">
         <v>31</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>36</v>
       </c>
@@ -2569,11 +2569,11 @@
       <c r="F65" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>31</v>
@@ -2584,54 +2584,54 @@
       <c r="K65" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L65" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M65" s="11">
+      <c r="L65" s="11">
         <v>414000</v>
       </c>
+      <c r="M65" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="N65" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>4203</v>
+        <v>6116</v>
       </c>
       <c r="F66" s="15">
-        <v>6116</v>
-      </c>
-      <c r="G66" s="15">
         <v>5731</v>
       </c>
-      <c r="H66" s="15" t="s">
-        <v>31</v>
+      <c r="G66" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="15">
+        <v>6497795</v>
       </c>
       <c r="I66" s="15">
-        <v>6497795</v>
+        <v>4962000</v>
       </c>
       <c r="J66" s="15">
-        <v>4962000</v>
+        <v>5600197</v>
       </c>
       <c r="K66" s="15">
-        <v>5600197</v>
+        <v>7525</v>
       </c>
       <c r="L66" s="15">
-        <v>7525</v>
+        <v>3920514</v>
       </c>
       <c r="M66" s="15">
-        <v>3920514</v>
+        <v>5318000</v>
       </c>
       <c r="N66" s="15">
-        <v>5318000</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4760817</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2665,7 +2665,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2680,7 +2680,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2695,7 +2695,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>41</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2747,7 +2747,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>29</v>
       </c>
@@ -2756,37 +2756,37 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>18619</v>
+        <v>17076</v>
       </c>
       <c r="F73" s="9">
-        <v>17076</v>
+        <v>28933</v>
       </c>
       <c r="G73" s="9">
-        <v>28933</v>
+        <v>67858</v>
       </c>
       <c r="H73" s="9">
-        <v>67858</v>
+        <v>68431</v>
       </c>
       <c r="I73" s="9">
-        <v>68431</v>
-      </c>
-      <c r="J73" s="9">
         <v>64387</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>31</v>
+      <c r="J73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K73" s="9">
+        <v>61879</v>
       </c>
       <c r="L73" s="9">
-        <v>61879</v>
+        <v>42423</v>
       </c>
       <c r="M73" s="9">
-        <v>42423</v>
+        <v>16533</v>
       </c>
       <c r="N73" s="9">
-        <v>16533</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11176</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>32</v>
       </c>
@@ -2795,37 +2795,37 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>87762</v>
+        <v>153264</v>
       </c>
       <c r="F74" s="11">
-        <v>153264</v>
+        <v>278840</v>
       </c>
       <c r="G74" s="11">
-        <v>278840</v>
+        <v>323013</v>
       </c>
       <c r="H74" s="11">
-        <v>323013</v>
+        <v>658405</v>
       </c>
       <c r="I74" s="11">
-        <v>658405</v>
-      </c>
-      <c r="J74" s="11">
         <v>488870</v>
       </c>
-      <c r="K74" s="11" t="s">
-        <v>31</v>
+      <c r="J74" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="11">
+        <v>587361</v>
       </c>
       <c r="L74" s="11">
-        <v>587361</v>
+        <v>1073152</v>
       </c>
       <c r="M74" s="11">
-        <v>1073152</v>
+        <v>473029</v>
       </c>
       <c r="N74" s="11">
-        <v>473029</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>600928</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
@@ -2839,11 +2839,11 @@
       <c r="F75" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0</v>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>31</v>
@@ -2864,7 +2864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>36</v>
       </c>
@@ -2903,44 +2903,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>106381</v>
+        <v>170340</v>
       </c>
       <c r="F77" s="15">
-        <v>170340</v>
+        <v>307773</v>
       </c>
       <c r="G77" s="15">
-        <v>307773</v>
+        <v>390871</v>
       </c>
       <c r="H77" s="15">
-        <v>390871</v>
+        <v>726836</v>
       </c>
       <c r="I77" s="15">
-        <v>726836</v>
+        <v>553257</v>
       </c>
       <c r="J77" s="15">
-        <v>553257</v>
+        <v>0</v>
       </c>
       <c r="K77" s="15">
-        <v>0</v>
+        <v>649240</v>
       </c>
       <c r="L77" s="15">
-        <v>649240</v>
+        <v>1115575</v>
       </c>
       <c r="M77" s="15">
-        <v>1115575</v>
+        <v>489562</v>
       </c>
       <c r="N77" s="15">
-        <v>489562</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>612104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2955,7 +2955,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2970,7 +2970,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2985,7 +2985,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>42</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3037,7 +3037,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>29</v>
       </c>
@@ -3046,37 +3046,37 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>11195</v>
+        <v>26059</v>
       </c>
       <c r="F83" s="9">
-        <v>26059</v>
+        <v>56971</v>
       </c>
       <c r="G83" s="9">
-        <v>56971</v>
+        <v>25240</v>
       </c>
       <c r="H83" s="9">
-        <v>25240</v>
+        <v>26684</v>
       </c>
       <c r="I83" s="9">
-        <v>26684</v>
+        <v>2369</v>
       </c>
       <c r="J83" s="9">
-        <v>2369</v>
+        <v>60908</v>
       </c>
       <c r="K83" s="9">
-        <v>60908</v>
+        <v>19589</v>
       </c>
       <c r="L83" s="9">
-        <v>19589</v>
+        <v>18291</v>
       </c>
       <c r="M83" s="9">
-        <v>18291</v>
+        <v>10071</v>
       </c>
       <c r="N83" s="9">
-        <v>10071</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>59151</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>32</v>
       </c>
@@ -3085,37 +3085,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>513518</v>
+        <v>724922</v>
       </c>
       <c r="F84" s="11">
-        <v>724922</v>
+        <v>679176</v>
       </c>
       <c r="G84" s="11">
-        <v>679176</v>
+        <v>1482069</v>
       </c>
       <c r="H84" s="11">
-        <v>1482069</v>
+        <v>1137633</v>
       </c>
       <c r="I84" s="11">
-        <v>1137633</v>
+        <v>1660186</v>
       </c>
       <c r="J84" s="11">
-        <v>1660186</v>
+        <v>1818028</v>
       </c>
       <c r="K84" s="11">
-        <v>1818028</v>
+        <v>2843110</v>
       </c>
       <c r="L84" s="11">
-        <v>2843110</v>
+        <v>1530203</v>
       </c>
       <c r="M84" s="11">
-        <v>1530203</v>
+        <v>1944546</v>
       </c>
       <c r="N84" s="11">
-        <v>1944546</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1335566</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>34</v>
       </c>
@@ -3129,11 +3129,11 @@
       <c r="F85" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" s="9">
-        <v>0</v>
+      <c r="G85" s="9">
+        <v>0</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>31</v>
@@ -3154,7 +3154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>36</v>
       </c>
@@ -3193,44 +3193,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>524713</v>
+        <v>750981</v>
       </c>
       <c r="F87" s="15">
-        <v>750981</v>
+        <v>736147</v>
       </c>
       <c r="G87" s="15">
-        <v>736147</v>
+        <v>1507309</v>
       </c>
       <c r="H87" s="15">
-        <v>1507309</v>
+        <v>1164317</v>
       </c>
       <c r="I87" s="15">
-        <v>1164317</v>
+        <v>1662555</v>
       </c>
       <c r="J87" s="15">
-        <v>1662555</v>
+        <v>1878936</v>
       </c>
       <c r="K87" s="15">
-        <v>1878936</v>
+        <v>2862699</v>
       </c>
       <c r="L87" s="15">
-        <v>2862699</v>
+        <v>1548494</v>
       </c>
       <c r="M87" s="15">
-        <v>1548494</v>
+        <v>1954617</v>
       </c>
       <c r="N87" s="15">
-        <v>1954617</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1394717</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3245,7 +3245,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3260,7 +3260,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3275,7 +3275,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>43</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3327,7 +3327,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>29</v>
       </c>
@@ -3336,37 +3336,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>12739</v>
+        <v>14251</v>
       </c>
       <c r="F93" s="9">
-        <v>14251</v>
+        <v>17996</v>
       </c>
       <c r="G93" s="9">
-        <v>17996</v>
+        <v>24667</v>
       </c>
       <c r="H93" s="9">
-        <v>24667</v>
+        <v>30728</v>
       </c>
       <c r="I93" s="9">
-        <v>30728</v>
+        <v>31683</v>
       </c>
       <c r="J93" s="9">
-        <v>31683</v>
+        <v>34110</v>
       </c>
       <c r="K93" s="9">
-        <v>34110</v>
+        <v>39045</v>
       </c>
       <c r="L93" s="9">
-        <v>39045</v>
+        <v>-4793</v>
       </c>
       <c r="M93" s="9">
-        <v>-4793</v>
+        <v>64402</v>
       </c>
       <c r="N93" s="9">
-        <v>64402</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>32346</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>32</v>
       </c>
@@ -3375,37 +3375,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>448015</v>
+        <v>599297</v>
       </c>
       <c r="F94" s="11">
-        <v>599297</v>
+        <v>635053</v>
       </c>
       <c r="G94" s="11">
-        <v>635053</v>
+        <v>1146677</v>
       </c>
       <c r="H94" s="11">
-        <v>1146677</v>
+        <v>1307168</v>
       </c>
       <c r="I94" s="11">
-        <v>1307168</v>
+        <v>1697389</v>
       </c>
       <c r="J94" s="11">
-        <v>1697389</v>
+        <v>1686184</v>
       </c>
       <c r="K94" s="11">
-        <v>1686184</v>
+        <v>2357319</v>
       </c>
       <c r="L94" s="11">
-        <v>2357319</v>
+        <v>2130223</v>
       </c>
       <c r="M94" s="11">
-        <v>2130223</v>
+        <v>1816750</v>
       </c>
       <c r="N94" s="11">
-        <v>1816750</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1414178</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>34</v>
       </c>
@@ -3419,11 +3419,11 @@
       <c r="F95" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0</v>
+      <c r="G95" s="9">
+        <v>0</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>31</v>
@@ -3444,7 +3444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>36</v>
       </c>
@@ -3483,44 +3483,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>460754</v>
+        <v>613548</v>
       </c>
       <c r="F97" s="15">
-        <v>613548</v>
+        <v>653049</v>
       </c>
       <c r="G97" s="15">
-        <v>653049</v>
+        <v>1171344</v>
       </c>
       <c r="H97" s="15">
-        <v>1171344</v>
+        <v>1337896</v>
       </c>
       <c r="I97" s="15">
-        <v>1337896</v>
+        <v>1729072</v>
       </c>
       <c r="J97" s="15">
-        <v>1729072</v>
+        <v>1720294</v>
       </c>
       <c r="K97" s="15">
-        <v>1720294</v>
+        <v>2396364</v>
       </c>
       <c r="L97" s="15">
-        <v>2396364</v>
+        <v>2125430</v>
       </c>
       <c r="M97" s="15">
-        <v>2125430</v>
+        <v>1881152</v>
       </c>
       <c r="N97" s="15">
-        <v>1881152</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1446524</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3535,7 +3535,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3550,7 +3550,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3565,7 +3565,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>44</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3617,7 +3617,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
@@ -3626,37 +3626,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>17076</v>
+        <v>28933</v>
       </c>
       <c r="F103" s="9">
-        <v>28933</v>
+        <v>67858</v>
       </c>
       <c r="G103" s="9">
-        <v>67858</v>
+        <v>68431</v>
       </c>
       <c r="H103" s="9">
-        <v>68431</v>
+        <v>64387</v>
       </c>
       <c r="I103" s="9">
-        <v>64387</v>
+        <v>35080</v>
       </c>
       <c r="J103" s="9">
-        <v>35080</v>
+        <v>61878</v>
       </c>
       <c r="K103" s="9">
-        <v>61878</v>
+        <v>42423</v>
       </c>
       <c r="L103" s="9">
-        <v>42423</v>
+        <v>16533</v>
       </c>
       <c r="M103" s="9">
-        <v>16533</v>
+        <v>11176</v>
       </c>
       <c r="N103" s="9">
-        <v>11176</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37980</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>32</v>
       </c>
@@ -3665,37 +3665,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>153264</v>
+        <v>278840</v>
       </c>
       <c r="F104" s="11">
-        <v>278840</v>
+        <v>323013</v>
       </c>
       <c r="G104" s="11">
-        <v>323013</v>
+        <v>658405</v>
       </c>
       <c r="H104" s="11">
-        <v>658405</v>
+        <v>488870</v>
       </c>
       <c r="I104" s="11">
-        <v>488870</v>
+        <v>451667</v>
       </c>
       <c r="J104" s="11">
-        <v>451667</v>
+        <v>583511</v>
       </c>
       <c r="K104" s="11">
-        <v>583511</v>
+        <v>1073152</v>
       </c>
       <c r="L104" s="11">
-        <v>1073152</v>
+        <v>473029</v>
       </c>
       <c r="M104" s="11">
-        <v>473029</v>
+        <v>600928</v>
       </c>
       <c r="N104" s="11">
-        <v>600928</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>522317</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>34</v>
       </c>
@@ -3709,11 +3709,11 @@
       <c r="F105" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H105" s="9">
-        <v>0</v>
+      <c r="G105" s="9">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>31</v>
@@ -3734,7 +3734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>36</v>
       </c>
@@ -3763,54 +3763,54 @@
       <c r="K106" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L106" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M106" s="11">
+      <c r="L106" s="11">
         <v>104039</v>
       </c>
+      <c r="M106" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="N106" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>170340</v>
+        <v>307773</v>
       </c>
       <c r="F107" s="15">
-        <v>307773</v>
+        <v>390871</v>
       </c>
       <c r="G107" s="15">
-        <v>390871</v>
+        <v>726836</v>
       </c>
       <c r="H107" s="15">
-        <v>726836</v>
+        <v>553257</v>
       </c>
       <c r="I107" s="15">
-        <v>553257</v>
+        <v>486747</v>
       </c>
       <c r="J107" s="15">
-        <v>486747</v>
+        <v>645389</v>
       </c>
       <c r="K107" s="15">
-        <v>645389</v>
+        <v>1115575</v>
       </c>
       <c r="L107" s="15">
-        <v>1115575</v>
+        <v>593601</v>
       </c>
       <c r="M107" s="15">
-        <v>593601</v>
+        <v>612104</v>
       </c>
       <c r="N107" s="15">
-        <v>612104</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>560297</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3825,7 +3825,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3840,7 +3840,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3855,7 +3855,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>45</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3907,7 +3907,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
@@ -3916,37 +3916,37 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>39614894</v>
+        <v>50371681</v>
       </c>
       <c r="F113" s="9">
-        <v>50371681</v>
+        <v>59410678</v>
       </c>
       <c r="G113" s="9">
-        <v>59410678</v>
+        <v>116795181</v>
       </c>
       <c r="H113" s="9">
-        <v>116795181</v>
+        <v>116976068</v>
       </c>
       <c r="I113" s="9">
-        <v>116976068</v>
+        <v>120456</v>
       </c>
       <c r="J113" s="9">
-        <v>120456</v>
+        <v>97989</v>
       </c>
       <c r="K113" s="9">
-        <v>97989</v>
+        <v>123758000</v>
       </c>
       <c r="L113" s="9">
-        <v>123758000</v>
+        <v>122609827</v>
       </c>
       <c r="M113" s="9">
-        <v>122609827</v>
+        <v>78536</v>
       </c>
       <c r="N113" s="9">
-        <v>78536</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71641</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>32</v>
       </c>
@@ -3955,37 +3955,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>22416858</v>
+        <v>39664596</v>
       </c>
       <c r="F114" s="11">
-        <v>39664596</v>
+        <v>49536330</v>
       </c>
       <c r="G114" s="11">
-        <v>49536330</v>
+        <v>62721</v>
       </c>
       <c r="H114" s="11">
-        <v>62721</v>
+        <v>74921</v>
       </c>
       <c r="I114" s="11">
-        <v>74921</v>
+        <v>81980</v>
       </c>
       <c r="J114" s="11">
-        <v>81980</v>
+        <v>98103</v>
       </c>
       <c r="K114" s="11">
-        <v>98103</v>
+        <v>115168824</v>
       </c>
       <c r="L114" s="11">
-        <v>115168824</v>
+        <v>149484886</v>
       </c>
       <c r="M114" s="11">
-        <v>149484886</v>
+        <v>143516</v>
       </c>
       <c r="N114" s="11">
-        <v>143516</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116414</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>36</v>
       </c>
@@ -3999,12 +3999,12 @@
       <c r="F115" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G115" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H115" s="9">
+      <c r="G115" s="9">
         <v>62721</v>
       </c>
+      <c r="H115" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I115" s="9" t="s">
         <v>31</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>36</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4060,7 +4060,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4075,7 +4075,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4090,7 +4090,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>49</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4142,7 +4142,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>29</v>
       </c>
@@ -4151,37 +4151,37 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>153356164</v>
+        <v>67510363</v>
       </c>
       <c r="F122" s="9">
-        <v>67510363</v>
+        <v>292158974</v>
       </c>
       <c r="G122" s="9">
-        <v>292158974</v>
+        <v>100960000</v>
       </c>
       <c r="H122" s="9">
-        <v>100960000</v>
+        <v>73349</v>
       </c>
       <c r="I122" s="9">
-        <v>73349</v>
+        <v>87890</v>
       </c>
       <c r="J122" s="9">
-        <v>87890</v>
+        <v>165773</v>
       </c>
       <c r="K122" s="9">
-        <v>165773</v>
+        <v>477780488</v>
       </c>
       <c r="L122" s="9">
-        <v>477780488</v>
+        <v>214688</v>
       </c>
       <c r="M122" s="9">
-        <v>214688</v>
+        <v>82711</v>
       </c>
       <c r="N122" s="9">
-        <v>82711</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>167766</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>32</v>
       </c>
@@ -4190,37 +4190,37 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>37543354</v>
+        <v>53111730</v>
       </c>
       <c r="F123" s="11">
-        <v>53111730</v>
+        <v>67532664</v>
       </c>
       <c r="G123" s="11">
-        <v>67532664</v>
+        <v>76979</v>
       </c>
       <c r="H123" s="11">
-        <v>76979</v>
+        <v>83845</v>
       </c>
       <c r="I123" s="11">
-        <v>83845</v>
+        <v>100431</v>
       </c>
       <c r="J123" s="11">
-        <v>100431</v>
+        <v>110840</v>
       </c>
       <c r="K123" s="11">
-        <v>110840</v>
+        <v>150724169</v>
       </c>
       <c r="L123" s="11">
-        <v>150724169</v>
+        <v>51605</v>
       </c>
       <c r="M123" s="11">
-        <v>51605</v>
+        <v>115767</v>
       </c>
       <c r="N123" s="11">
-        <v>115767</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117755</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
@@ -4234,12 +4234,12 @@
       <c r="F124" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G124" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H124" s="9">
+      <c r="G124" s="9">
         <v>76979</v>
       </c>
+      <c r="H124" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I124" s="9" t="s">
         <v>31</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>36</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4295,7 +4295,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4310,7 +4310,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4325,7 +4325,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>50</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4377,7 +4377,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>29</v>
       </c>
@@ -4386,37 +4386,37 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>62141463</v>
+        <v>59878151</v>
       </c>
       <c r="F131" s="9">
-        <v>59878151</v>
+        <v>178178218</v>
       </c>
       <c r="G131" s="9">
-        <v>178178218</v>
+        <v>100272358</v>
       </c>
       <c r="H131" s="9">
-        <v>100272358</v>
+        <v>74958</v>
       </c>
       <c r="I131" s="9">
-        <v>74958</v>
+        <v>155447</v>
       </c>
       <c r="J131" s="9">
-        <v>155447</v>
+        <v>151202</v>
       </c>
       <c r="K131" s="9">
-        <v>151202</v>
+        <v>200230769</v>
       </c>
       <c r="L131" s="9">
-        <v>200230769</v>
+        <v>-12798</v>
       </c>
       <c r="M131" s="9">
-        <v>-12798</v>
+        <v>365321</v>
       </c>
       <c r="N131" s="9">
-        <v>365321</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>194905</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>32</v>
       </c>
@@ -4425,37 +4425,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>32632748</v>
+        <v>50428896</v>
       </c>
       <c r="F132" s="11">
-        <v>50428896</v>
+        <v>60274582</v>
       </c>
       <c r="G132" s="11">
-        <v>60274582</v>
+        <v>73434</v>
       </c>
       <c r="H132" s="11">
-        <v>73434</v>
+        <v>79739</v>
       </c>
       <c r="I132" s="11">
-        <v>79739</v>
+        <v>94880</v>
       </c>
       <c r="J132" s="11">
-        <v>94880</v>
+        <v>106005</v>
       </c>
       <c r="K132" s="11">
-        <v>106005</v>
+        <v>140450369</v>
       </c>
       <c r="L132" s="11">
-        <v>140450369</v>
+        <v>67716</v>
       </c>
       <c r="M132" s="11">
-        <v>67716</v>
+        <v>121676</v>
       </c>
       <c r="N132" s="11">
-        <v>121676</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117011</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>36</v>
       </c>
@@ -4469,12 +4469,12 @@
       <c r="F133" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H133" s="9">
+      <c r="G133" s="9">
         <v>73434</v>
       </c>
+      <c r="H133" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I133" s="9" t="s">
         <v>31</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>36</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4530,7 +4530,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4545,7 +4545,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4560,7 +4560,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
         <v>51</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4612,7 +4612,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>29</v>
       </c>
@@ -4626,32 +4626,32 @@
       <c r="F140" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G140" s="9" t="s">
-        <v>31</v>
+      <c r="G140" s="9">
+        <v>116976068</v>
       </c>
       <c r="H140" s="9">
-        <v>116976068</v>
+        <v>120456</v>
       </c>
       <c r="I140" s="9">
-        <v>120456</v>
+        <v>97989</v>
       </c>
       <c r="J140" s="9">
-        <v>97989</v>
+        <v>123636</v>
       </c>
       <c r="K140" s="9">
-        <v>123636</v>
+        <v>122609827</v>
       </c>
       <c r="L140" s="9">
-        <v>122609827</v>
+        <v>78536</v>
       </c>
       <c r="M140" s="9">
-        <v>78536</v>
+        <v>71641</v>
       </c>
       <c r="N140" s="9">
-        <v>71641</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>110694</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>32</v>
       </c>
@@ -4669,28 +4669,28 @@
         <v>31</v>
       </c>
       <c r="H141" s="11">
-        <v>74921</v>
+        <v>81980</v>
       </c>
       <c r="I141" s="11">
-        <v>81980</v>
+        <v>98103</v>
       </c>
       <c r="J141" s="11">
-        <v>98103</v>
+        <v>114420</v>
       </c>
       <c r="K141" s="11">
-        <v>114420</v>
+        <v>149484886</v>
       </c>
       <c r="L141" s="11">
-        <v>149484886</v>
+        <v>143516</v>
       </c>
       <c r="M141" s="11">
-        <v>143516</v>
+        <v>116414</v>
       </c>
       <c r="N141" s="11">
-        <v>116414</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>118233</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>36</v>
       </c>
@@ -4702,8 +4702,8 @@
       <c r="F142" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G142" s="9" t="s">
-        <v>31</v>
+      <c r="G142" s="9">
+        <v>74921</v>
       </c>
       <c r="H142" s="9" t="s">
         <v>31</v>
@@ -4717,17 +4717,17 @@
       <c r="K142" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L142" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M142" s="9">
+      <c r="L142" s="9">
         <v>251302</v>
       </c>
+      <c r="M142" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="N142" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>36</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4761,7 +4761,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4776,7 +4776,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4791,7 +4791,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>52</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4843,7 +4843,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>53</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>54</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>55</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>56</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>57</v>
       </c>
@@ -5028,118 +5028,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
-        <v>13105</v>
+        <v>14317</v>
       </c>
       <c r="F154" s="11">
-        <v>14317</v>
+        <v>14880</v>
       </c>
       <c r="G154" s="11">
-        <v>14880</v>
+        <v>27198</v>
       </c>
       <c r="H154" s="11">
-        <v>27198</v>
+        <v>40399</v>
       </c>
       <c r="I154" s="11">
-        <v>40399</v>
+        <v>62564</v>
       </c>
       <c r="J154" s="11">
-        <v>62564</v>
+        <v>69910</v>
       </c>
       <c r="K154" s="11">
-        <v>69910</v>
+        <v>52223</v>
       </c>
       <c r="L154" s="11">
-        <v>52223</v>
+        <v>86143</v>
       </c>
       <c r="M154" s="11">
-        <v>86143</v>
+        <v>68942</v>
       </c>
       <c r="N154" s="11">
-        <v>68942</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29233</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>2023</v>
+        <v>3169</v>
       </c>
       <c r="F155" s="9">
-        <v>3169</v>
+        <v>2234</v>
       </c>
       <c r="G155" s="9">
-        <v>2234</v>
+        <v>14175</v>
       </c>
       <c r="H155" s="9">
-        <v>14175</v>
+        <v>17417</v>
       </c>
       <c r="I155" s="9">
-        <v>17417</v>
+        <v>16306</v>
       </c>
       <c r="J155" s="9">
-        <v>16306</v>
+        <v>15935</v>
       </c>
       <c r="K155" s="9">
-        <v>15935</v>
+        <v>16570</v>
       </c>
       <c r="L155" s="9">
-        <v>16570</v>
+        <v>17482</v>
       </c>
       <c r="M155" s="9">
-        <v>17482</v>
+        <v>19689</v>
       </c>
       <c r="N155" s="9">
-        <v>19689</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20985</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>33661</v>
+        <v>29501</v>
       </c>
       <c r="F156" s="11">
-        <v>29501</v>
+        <v>38316</v>
       </c>
       <c r="G156" s="11">
-        <v>38316</v>
+        <v>52389</v>
       </c>
       <c r="H156" s="11">
-        <v>52389</v>
+        <v>50954</v>
       </c>
       <c r="I156" s="11">
-        <v>50954</v>
+        <v>39495</v>
       </c>
       <c r="J156" s="11">
-        <v>39495</v>
+        <v>52923</v>
       </c>
       <c r="K156" s="11">
-        <v>52923</v>
+        <v>69034</v>
       </c>
       <c r="L156" s="11">
-        <v>69034</v>
+        <v>75678</v>
       </c>
       <c r="M156" s="11">
-        <v>75678</v>
+        <v>74227</v>
       </c>
       <c r="N156" s="11">
-        <v>74227</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>76472</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>61</v>
       </c>
@@ -5176,81 +5176,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>21938</v>
+        <v>14510</v>
       </c>
       <c r="F158" s="11">
-        <v>14510</v>
+        <v>32363</v>
       </c>
       <c r="G158" s="11">
-        <v>32363</v>
+        <v>20385</v>
       </c>
       <c r="H158" s="11">
-        <v>20385</v>
+        <v>34905</v>
       </c>
       <c r="I158" s="11">
-        <v>34905</v>
+        <v>10109</v>
       </c>
       <c r="J158" s="11">
-        <v>10109</v>
+        <v>51280</v>
       </c>
       <c r="K158" s="11">
-        <v>51280</v>
+        <v>27708</v>
       </c>
       <c r="L158" s="11">
-        <v>27708</v>
+        <v>47435</v>
       </c>
       <c r="M158" s="11">
-        <v>47435</v>
+        <v>-10392</v>
       </c>
       <c r="N158" s="11">
-        <v>-10392</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>137121</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15">
-        <v>70727</v>
+        <v>61497</v>
       </c>
       <c r="F159" s="15">
-        <v>61497</v>
+        <v>87793</v>
       </c>
       <c r="G159" s="15">
-        <v>87793</v>
+        <v>114147</v>
       </c>
       <c r="H159" s="15">
-        <v>114147</v>
+        <v>143675</v>
       </c>
       <c r="I159" s="15">
-        <v>143675</v>
+        <v>128474</v>
       </c>
       <c r="J159" s="15">
-        <v>128474</v>
+        <v>190048</v>
       </c>
       <c r="K159" s="15">
-        <v>190048</v>
+        <v>165535</v>
       </c>
       <c r="L159" s="15">
-        <v>165535</v>
+        <v>226738</v>
       </c>
       <c r="M159" s="15">
-        <v>226738</v>
+        <v>152466</v>
       </c>
       <c r="N159" s="15">
-        <v>152466</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>263811</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5265,7 +5265,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5280,7 +5280,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5295,7 +5295,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>63</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5327,7 +5327,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>64</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>66</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>68</v>
       </c>
@@ -5376,7 +5376,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="9"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>69</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>70</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>72</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>73</v>
       </c>
@@ -5420,7 +5420,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>75</v>
       </c>
@@ -5431,7 +5431,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>77</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="9"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>69</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>79</v>
       </c>
@@ -5464,7 +5464,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="9"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>81</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>83</v>
       </c>
